--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>68.55</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.55</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>80.46</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>南方全球精选配置(QDII-FOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>202801</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>90.91</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.41</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.49</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.63</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.06</v>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3509,7 +3510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3520,17 +3521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3540,14 +3561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.01</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.9216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3556,14 +3599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.49</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3572,14 +3637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.63</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3588,14 +3675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.06</v>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3604,13 +3713,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4136,7 +4137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,17 +4148,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4167,14 +4188,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.12</v>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4183,14 +4226,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.01</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4199,14 +4264,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.49</v>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4215,14 +4302,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.63</v>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4231,14 +4340,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.06</v>
       </c>
     </row>
     <row r="7">
@@ -4247,13 +4378,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.21</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.98</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>18.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>13.01</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>13.49</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>6.63</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>3.06</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.21</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3635,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00916-龙源电力.xlsx
+++ b/数据整理/stocks/港股/00916-龙源电力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.98</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>18.12</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>13.01</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>13.49</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>6.63</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>3.06</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.21</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +2623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2968,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3974,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4448,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4806,288 +5391,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7233</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7233</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5431</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1732</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>